--- a/prediction_data_corrected.xlsx
+++ b/prediction_data_corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/tbt24_cam_ac_uk/Documents/Engineering Tripos/Part IIA/GA3 Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C726E562-9042-43D3-87B4-466914390C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4E8650F-7C51-4D2D-AE05-4C44E91BF4DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE0B758-4D02-4315-A82F-A5054AAA961E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2550" yWindow="2557" windowWidth="16815" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prediction_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Q_NTU (kW)</t>
+  </si>
+  <si>
+    <t>Q_NTU_corr (kW)</t>
   </si>
   <si>
     <t>eff_NTU</t>
@@ -125,7 +128,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,18 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="10" max="10" width="21.19921875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,10 +517,13 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>26.1</v>
@@ -545,53 +547,59 @@
         <v>12.46</v>
       </c>
       <c r="K2">
+        <v>14.79</v>
+      </c>
+      <c r="L2">
         <v>0.19700000000000001</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.466</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>19.7</v>
+      </c>
+      <c r="C3">
+        <v>24.08423252370503</v>
+      </c>
+      <c r="D3">
+        <v>53.4</v>
+      </c>
+      <c r="E3">
+        <v>47.734870153833583</v>
+      </c>
+      <c r="F3">
+        <v>0.46253021282624579</v>
+      </c>
+      <c r="G3">
+        <v>0.36107089915385848</v>
+      </c>
+      <c r="H3">
+        <v>0.26905858408189409</v>
+      </c>
+      <c r="I3">
+        <v>0.25726981439366109</v>
+      </c>
+      <c r="J3">
+        <v>8.4541966177960806</v>
+      </c>
+      <c r="K3">
+        <v>13.089610696820831</v>
+      </c>
+      <c r="L3">
+        <v>0.1681047432096858</v>
+      </c>
+      <c r="M3">
+        <v>1.270736765909332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>13</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>25.540113029158071</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>53.585346222520101</v>
-      </c>
-      <c r="F3">
-        <v>0.4626039957204372</v>
-      </c>
-      <c r="G3">
-        <v>0.40402758180672388</v>
-      </c>
-      <c r="H3">
-        <v>0.26948111878785952</v>
-      </c>
-      <c r="I3">
-        <v>0.198576147394495</v>
-      </c>
-      <c r="J3">
-        <v>10.683662576363179</v>
-      </c>
-      <c r="K3">
-        <v>0.16036634443699749</v>
-      </c>
-      <c r="L3">
-        <v>1.4255456683576979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
       <c r="C4">
         <v>30.1</v>
@@ -615,54 +623,57 @@
         <v>8.52</v>
       </c>
       <c r="K4">
+        <v>13.01</v>
+      </c>
+      <c r="L4">
         <v>0.314</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>22.3</v>
       </c>
       <c r="C5">
-        <v>28.72754749243084</v>
+        <v>27.90363503569958</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>48.5</v>
       </c>
       <c r="E5">
-        <v>52.356281320928957</v>
+        <v>43.369783226327939</v>
       </c>
       <c r="F5">
-        <v>0.32826287830425588</v>
+        <v>0.3283317029368315</v>
       </c>
       <c r="G5">
-        <v>0.3790229690152056</v>
+        <v>0.36074794169257107</v>
       </c>
       <c r="H5">
-        <v>0.42039634650602309</v>
+        <v>0.4202630791594153</v>
       </c>
       <c r="I5">
-        <v>0.22903348629915679</v>
+        <v>0.25763103311034169</v>
       </c>
       <c r="J5">
-        <v>11.942799801381531</v>
+        <v>7.6633730324612017</v>
       </c>
       <c r="K5">
-        <v>0.21818868731077121</v>
+        <v>17.82526828188173</v>
       </c>
       <c r="L5">
-        <v>1.0294450180976811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
+        <v>0.21387919983586171</v>
+      </c>
+      <c r="M5">
+        <v>0.91765115773946437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C6">
         <v>21</v>
       </c>
@@ -673,10 +684,10 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H6">
         <v>0.49</v>
-      </c>
-      <c r="H6">
-        <v>0.35599999999999998</v>
       </c>
       <c r="I6">
         <v>0.16300000000000001</v>
@@ -685,54 +696,57 @@
         <v>15.82</v>
       </c>
       <c r="K6">
-        <v>0.19800000000000001</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="L6">
-        <v>1.466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>13.8</v>
       </c>
       <c r="C7">
-        <v>25.478687597432572</v>
+        <v>18.82446982658109</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>53.2</v>
       </c>
       <c r="E7">
-        <v>53.5277659134942</v>
+        <v>46.486090979222887</v>
       </c>
       <c r="F7">
-        <v>0.51250542322744119</v>
+        <v>0.51222689473116245</v>
       </c>
       <c r="G7">
-        <v>0.43870947702495949</v>
+        <v>0.38747890567509558</v>
       </c>
       <c r="H7">
-        <v>0.32518256653768229</v>
+        <v>0.32521730663361642</v>
       </c>
       <c r="I7">
-        <v>0.2339123937918923</v>
+        <v>0.2960923714378163</v>
       </c>
       <c r="J7">
-        <v>11.70488525725364</v>
+        <v>10.75293685330157</v>
       </c>
       <c r="K7">
-        <v>0.16180585216264501</v>
+        <v>9.5639939947586647</v>
       </c>
       <c r="L7">
-        <v>1.4255456683576979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
+        <v>0.17040378225322611</v>
+      </c>
+      <c r="M7">
+        <v>1.270736765909332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C8">
         <v>26.4</v>
       </c>
@@ -743,10 +757,10 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="G8">
+        <v>0.437</v>
+      </c>
+      <c r="H8">
         <v>0.29899999999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.437</v>
       </c>
       <c r="I8">
         <v>0.39100000000000001</v>
@@ -755,54 +769,57 @@
         <v>11.98</v>
       </c>
       <c r="K8">
+        <v>12.78</v>
+      </c>
+      <c r="L8">
         <v>0.26</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C9">
-        <v>27.662181743865769</v>
+        <v>27.782789412325009</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>57.1</v>
       </c>
       <c r="E9">
-        <v>51.289047661515383</v>
+        <v>49.9348091640205</v>
       </c>
       <c r="F9">
-        <v>0.35295357249690951</v>
+        <v>0.35294101028434532</v>
       </c>
       <c r="G9">
-        <v>0.3139500985350967</v>
+        <v>0.40718289315084999</v>
       </c>
       <c r="H9">
-        <v>0.46384571504373262</v>
+        <v>0.46387118360921059</v>
       </c>
       <c r="I9">
-        <v>0.37653072069440469</v>
+        <v>0.26848056510459928</v>
       </c>
       <c r="J9">
-        <v>11.27358878270566</v>
+        <v>12.040864561719429</v>
       </c>
       <c r="K9">
-        <v>0.2177738084621155</v>
+        <v>14.18324395917328</v>
       </c>
       <c r="L9">
-        <v>1.1398609500129451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
+        <v>0.21820771766200009</v>
+      </c>
+      <c r="M9">
+        <v>1.0160763343867421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C10">
         <v>26</v>
       </c>
@@ -813,10 +830,10 @@
         <v>0.375</v>
       </c>
       <c r="G10">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H10">
         <v>0.46200000000000002</v>
-      </c>
-      <c r="H10">
-        <v>0.45800000000000002</v>
       </c>
       <c r="I10">
         <v>0.219</v>
@@ -825,54 +842,57 @@
         <v>11.22</v>
       </c>
       <c r="K10">
+        <v>12.82</v>
+      </c>
+      <c r="L10">
         <v>0.21</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.03</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="C11">
-        <v>28.10636337914401</v>
+        <v>26.28585138370121</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>54.3</v>
       </c>
       <c r="E11">
-        <v>51.706631075500383</v>
+        <v>46.939330670752817</v>
       </c>
       <c r="F11">
-        <v>0.42726737886360999</v>
+        <v>0.42604222269952741</v>
       </c>
       <c r="G11">
-        <v>0.42232914108415642</v>
+        <v>0.40807234591518138</v>
       </c>
       <c r="H11">
-        <v>0.42283456134324859</v>
+        <v>0.41474340095602202</v>
       </c>
       <c r="I11">
-        <v>0.24961973249813799</v>
+        <v>0.26746569320425978</v>
       </c>
       <c r="J11">
-        <v>14.43836320052762</v>
+        <v>12.410027541861069</v>
       </c>
       <c r="K11">
-        <v>0.2073342231124905</v>
+        <v>16.593345849745258</v>
       </c>
       <c r="L11">
-        <v>1.0537795959185059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
+        <v>0.21030483797849089</v>
+      </c>
+      <c r="M11">
+        <v>0.93934309185717657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C12">
         <v>24.1</v>
       </c>
@@ -883,10 +903,10 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="G12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H12">
         <v>0.46200000000000002</v>
-      </c>
-      <c r="H12">
-        <v>0.27500000000000002</v>
       </c>
       <c r="I12">
         <v>0.21199999999999999</v>
@@ -895,54 +915,57 @@
         <v>11.77</v>
       </c>
       <c r="K12">
+        <v>14.23</v>
+      </c>
+      <c r="L12">
         <v>0.19</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C13">
-        <v>25.133715792738538</v>
+        <v>23.511767850505858</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="E13">
-        <v>53.212979959623382</v>
+        <v>46.763395833217103</v>
       </c>
       <c r="F13">
-        <v>0.56466738022172347</v>
+        <v>0.56464003879635194</v>
       </c>
       <c r="G13">
-        <v>0.43191831548860821</v>
+        <v>0.40814060212782183</v>
       </c>
       <c r="H13">
-        <v>0.27742387558733078</v>
+        <v>0.27743486681242119</v>
       </c>
       <c r="I13">
-        <v>0.24071950057689159</v>
+        <v>0.26866446674322458</v>
       </c>
       <c r="J13">
-        <v>12.08416594029973</v>
+        <v>9.6802256526548156</v>
       </c>
       <c r="K13">
-        <v>0.16967550100941561</v>
+        <v>15.30187652682539</v>
       </c>
       <c r="L13">
-        <v>1.065479746340009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
+        <v>0.17331130413241391</v>
+      </c>
+      <c r="M13">
+        <v>0.94977264991153276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C14">
         <v>25</v>
       </c>
@@ -953,10 +976,10 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="G14">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="H14">
         <v>0.34899999999999998</v>
-      </c>
-      <c r="H14">
-        <v>0.36199999999999999</v>
       </c>
       <c r="I14">
         <v>0.34799999999999998</v>
@@ -965,54 +988,57 @@
         <v>13.71</v>
       </c>
       <c r="K14">
+        <v>16.27</v>
+      </c>
+      <c r="L14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
       <c r="C15">
-        <v>27.762785053796492</v>
+        <v>25.230304969668349</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>52.7</v>
       </c>
       <c r="E15">
-        <v>51.380508661750987</v>
+        <v>45.163398907509873</v>
       </c>
       <c r="F15">
-        <v>0.48958085626225339</v>
+        <v>0.48953224406772677</v>
       </c>
       <c r="G15">
-        <v>0.44587855099640611</v>
+        <v>0.40820201295363229</v>
       </c>
       <c r="H15">
-        <v>0.34778645062781272</v>
+        <v>0.34779811083881462</v>
       </c>
       <c r="I15">
-        <v>0.22701752268771161</v>
+        <v>0.26845812362905669</v>
       </c>
       <c r="J15">
-        <v>15.84288051493021</v>
+        <v>12.718562607350719</v>
       </c>
       <c r="K15">
-        <v>0.21548728345622531</v>
+        <v>17.85750168530447</v>
       </c>
       <c r="L15">
-        <v>1.1339119470363821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
+        <v>0.22363801461395069</v>
+      </c>
+      <c r="M15">
+        <v>1.010773370777353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C16">
         <v>25.4</v>
       </c>
@@ -1023,10 +1049,10 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="G16">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H16">
         <v>0.29899999999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.42199999999999999</v>
       </c>
       <c r="I16">
         <v>0.4</v>
@@ -1035,54 +1061,57 @@
         <v>10.73</v>
       </c>
       <c r="K16">
+        <v>12.44</v>
+      </c>
+      <c r="L16">
         <v>0.25</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C17">
-        <v>25.270481544265369</v>
+        <v>23.739813617609389</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>53.9</v>
       </c>
       <c r="E17">
-        <v>53.336064432055252</v>
+        <v>47.968212059150709</v>
       </c>
       <c r="F17">
-        <v>0.55305304119961152</v>
+        <v>0.55302687711738685</v>
       </c>
       <c r="G17">
-        <v>0.44232605547968179</v>
+        <v>0.40825462124941309</v>
       </c>
       <c r="H17">
-        <v>0.28974164044409401</v>
+        <v>0.28975422229137721</v>
       </c>
       <c r="I17">
-        <v>0.23039343668214921</v>
+        <v>0.268514281186508</v>
       </c>
       <c r="J17">
-        <v>12.15092219446046</v>
+        <v>10.00696868002612</v>
       </c>
       <c r="K17">
-        <v>0.16659838919861869</v>
+        <v>14.4605848402101</v>
       </c>
       <c r="L17">
-        <v>1.1654770792639879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
+        <v>0.17193588234345769</v>
+      </c>
+      <c r="M17">
+        <v>1.0389106482653621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C18">
         <v>26.1</v>
       </c>
@@ -1093,10 +1122,10 @@
         <v>0.375</v>
       </c>
       <c r="G18">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H18">
         <v>0.46200000000000002</v>
-      </c>
-      <c r="H18">
-        <v>0.44900000000000001</v>
       </c>
       <c r="I18">
         <v>0.223</v>
@@ -1105,54 +1134,57 @@
         <v>11.23</v>
       </c>
       <c r="K18">
+        <v>12.59</v>
+      </c>
+      <c r="L18">
         <v>0.2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.03</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C19">
-        <v>28.10636337914401</v>
+        <v>26.624838232418039</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>55.2</v>
       </c>
       <c r="E19">
-        <v>51.706631075500383</v>
+        <v>47.691417748630997</v>
       </c>
       <c r="F19">
-        <v>0.42726737886360999</v>
+        <v>0.4260496096443453</v>
       </c>
       <c r="G19">
-        <v>0.42232914108415642</v>
+        <v>0.40811380878865489</v>
       </c>
       <c r="H19">
-        <v>0.42283456134324859</v>
+        <v>0.4147368189103699</v>
       </c>
       <c r="I19">
-        <v>0.24961973249813799</v>
+        <v>0.2673994692176046</v>
       </c>
       <c r="J19">
-        <v>14.43836320052762</v>
+        <v>12.656245024033259</v>
       </c>
       <c r="K19">
-        <v>0.2073342231124905</v>
+        <v>16.25752545944087</v>
       </c>
       <c r="L19">
-        <v>1.0537795959185059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
+        <v>0.2103244328114566</v>
+      </c>
+      <c r="M19">
+        <v>0.93934309185717657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C20">
         <v>24.2</v>
       </c>
@@ -1163,10 +1195,10 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="G20">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H20">
         <v>0.47599999999999998</v>
-      </c>
-      <c r="H20">
-        <v>0.26900000000000002</v>
       </c>
       <c r="I20">
         <v>0.19900000000000001</v>
@@ -1175,54 +1207,57 @@
         <v>12.32</v>
       </c>
       <c r="K20">
+        <v>14.76</v>
+      </c>
+      <c r="L20">
         <v>0.19</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C21">
-        <v>25.133715792738538</v>
+        <v>23.748826546478341</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>53.212979959623382</v>
+        <v>47.211220787944811</v>
       </c>
       <c r="F21">
-        <v>0.56466738022172347</v>
+        <v>0.56464908501740074</v>
       </c>
       <c r="G21">
-        <v>0.43191831548860821</v>
+        <v>0.4081633149197274</v>
       </c>
       <c r="H21">
-        <v>0.27742387558733078</v>
+        <v>0.27743123156096178</v>
       </c>
       <c r="I21">
-        <v>0.24071950057689159</v>
+        <v>0.26863451787199172</v>
       </c>
       <c r="J21">
-        <v>12.08416594029973</v>
+        <v>9.7669300944965709</v>
       </c>
       <c r="K21">
-        <v>0.16967550100941561</v>
+        <v>15.201363091724341</v>
       </c>
       <c r="L21">
-        <v>1.065479746340009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
+        <v>0.17331674287590401</v>
+      </c>
+      <c r="M21">
+        <v>0.94977264991153276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C22">
         <v>25.2</v>
       </c>
@@ -1233,10 +1268,10 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="G22">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H22">
         <v>0.35399999999999998</v>
-      </c>
-      <c r="H22">
-        <v>0.35899999999999999</v>
       </c>
       <c r="I22">
         <v>0.34799999999999998</v>
@@ -1245,54 +1280,57 @@
         <v>13.2</v>
       </c>
       <c r="K22">
+        <v>15.62</v>
+      </c>
+      <c r="L22">
         <v>0.27</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C23">
-        <v>27.744767578406979</v>
+        <v>25.63316143313266</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>53.2</v>
       </c>
       <c r="E23">
-        <v>51.363998698361947</v>
+        <v>45.627676440640393</v>
       </c>
       <c r="F23">
-        <v>0.49165975574892579</v>
+        <v>0.49163014316199638</v>
       </c>
       <c r="G23">
-        <v>0.44587855099640611</v>
+        <v>0.40822477624873571</v>
       </c>
       <c r="H23">
-        <v>0.3458091237480822</v>
+        <v>0.34581575331385839</v>
       </c>
       <c r="I23">
-        <v>0.22701752268771161</v>
+        <v>0.26842765589017381</v>
       </c>
       <c r="J23">
-        <v>15.873226316905519</v>
+        <v>12.77709433955118</v>
       </c>
       <c r="K23">
-        <v>0.21590003254095119</v>
+        <v>17.899097458573429</v>
       </c>
       <c r="L23">
-        <v>1.137868529966938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
+        <v>0.2240332414011722</v>
+      </c>
+      <c r="M23">
+        <v>1.0143002836703079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C24">
         <v>27.2</v>
       </c>
@@ -1315,54 +1353,57 @@
         <v>8.91</v>
       </c>
       <c r="K24">
+        <v>10.52</v>
+      </c>
+      <c r="L24">
         <v>0.2</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C25">
-        <v>28.534723530643909</v>
+        <v>27.116215867774191</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>53.5</v>
       </c>
       <c r="E25">
-        <v>52.145678546491183</v>
+        <v>47.157295633806491</v>
       </c>
       <c r="F25">
-        <v>0.31874234507732119</v>
+        <v>0.31873370246732879</v>
       </c>
       <c r="G25">
-        <v>0.35024889948696708</v>
+        <v>0.38102525244075319</v>
       </c>
       <c r="H25">
-        <v>0.33735765017074371</v>
+        <v>0.33737778016139791</v>
       </c>
       <c r="I25">
-        <v>0.33060054404764438</v>
+        <v>0.28789737111636943</v>
       </c>
       <c r="J25">
-        <v>11.340217368638269</v>
+        <v>9.9880660258375471</v>
       </c>
       <c r="K25">
-        <v>0.21336808826609771</v>
+        <v>14.84017455962314</v>
       </c>
       <c r="L25">
-        <v>0.91248961813400586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
+        <v>0.22171728223522669</v>
+      </c>
+      <c r="M25">
+        <v>0.81339667469881249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C26">
         <v>30.3</v>
       </c>
@@ -1382,57 +1423,60 @@
         <v>0.13</v>
       </c>
       <c r="J26">
-        <v>7.5500000000000007</v>
+        <v>7.55</v>
       </c>
       <c r="K26">
+        <v>11.61</v>
+      </c>
+      <c r="L26">
         <v>0.24</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>22.4</v>
       </c>
       <c r="C27">
-        <v>29.618714324691151</v>
+        <v>28.4473127760978</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>48.4</v>
       </c>
       <c r="E27">
-        <v>53.454527122931133</v>
+        <v>43.87621223579572</v>
       </c>
       <c r="F27">
-        <v>0.28353973496594548</v>
+        <v>0.28360315342565617</v>
       </c>
       <c r="G27">
-        <v>0.42135306557554192</v>
+        <v>0.381326096016397</v>
       </c>
       <c r="H27">
-        <v>0.38556139351773211</v>
+        <v>0.38559573864255031</v>
       </c>
       <c r="I27">
-        <v>0.22294758581504751</v>
+        <v>0.28736232098154069</v>
       </c>
       <c r="J27">
-        <v>11.369022179389971</v>
+        <v>7.1432427772222677</v>
       </c>
       <c r="K27">
-        <v>0.24046785811727889</v>
+        <v>17.71914712981059</v>
       </c>
       <c r="L27">
-        <v>0.94005880034117728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
+        <v>0.23258895292683859</v>
+      </c>
+      <c r="M27">
+        <v>0.83797194732200819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C28">
         <v>28.5</v>
       </c>
@@ -1455,54 +1499,57 @@
         <v>9.39</v>
       </c>
       <c r="K28">
+        <v>11.74</v>
+      </c>
+      <c r="L28">
         <v>0.22</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C29">
-        <v>28.924587373436282</v>
+        <v>27.379704914878278</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="E29">
-        <v>52.580583310891072</v>
+        <v>46.272498924921472</v>
       </c>
       <c r="F29">
-        <v>0.34254310788068321</v>
+        <v>0.34254300506268209</v>
       </c>
       <c r="G29">
-        <v>0.41666771116731283</v>
+        <v>0.38147413570318939</v>
       </c>
       <c r="H29">
-        <v>0.29227621797455439</v>
+        <v>0.29612732407304482</v>
       </c>
       <c r="I29">
-        <v>0.2280771741781796</v>
+        <v>0.28720555196210279</v>
       </c>
       <c r="J29">
-        <v>12.74369995775699</v>
+        <v>9.8219949193968237</v>
       </c>
       <c r="K29">
-        <v>0.22311468433590689</v>
+        <v>16.093402204314099</v>
       </c>
       <c r="L29">
-        <v>0.95958288828376548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
+        <v>0.2149907785899462</v>
+      </c>
+      <c r="M29">
+        <v>0.8553757926846588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C30">
         <v>28.6</v>
       </c>
@@ -1525,54 +1572,57 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="K30">
+        <v>11.5</v>
+      </c>
+      <c r="L30">
         <v>0.22</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="C31">
-        <v>28.924587373436282</v>
+        <v>27.751345982542819</v>
       </c>
       <c r="D31">
-        <v>60</v>
+        <v>51.3</v>
       </c>
       <c r="E31">
-        <v>52.580583310891072</v>
+        <v>45.463478541243063</v>
       </c>
       <c r="F31">
-        <v>0.34254310788068321</v>
+        <v>0.34256189036446572</v>
       </c>
       <c r="G31">
-        <v>0.41666771116731283</v>
+        <v>0.3814223232905416</v>
       </c>
       <c r="H31">
-        <v>0.29227621797455439</v>
+        <v>0.29609697456611811</v>
       </c>
       <c r="I31">
-        <v>0.2280771741781796</v>
+        <v>0.28726402733514278</v>
       </c>
       <c r="J31">
-        <v>12.74369995775699</v>
+        <v>9.208325756024184</v>
       </c>
       <c r="K31">
-        <v>0.22311468433590689</v>
+        <v>16.999132133325581</v>
       </c>
       <c r="L31">
-        <v>0.95958288828376548</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
+        <v>0.21504486608476059</v>
+      </c>
+      <c r="M31">
+        <v>0.8553757926846588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C32">
         <v>27.9</v>
       </c>
@@ -1595,48 +1645,54 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="K32">
+        <v>11.66</v>
+      </c>
+      <c r="L32">
         <v>0.2</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="C33">
-        <v>28.534723530643909</v>
+        <v>28.056588772444371</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>52.145678546491183</v>
+        <v>44.728551443189517</v>
       </c>
       <c r="F33">
-        <v>0.31874234507732119</v>
+        <v>0.31878282857294349</v>
       </c>
       <c r="G33">
-        <v>0.35024889948696708</v>
+        <v>0.38087439154760921</v>
       </c>
       <c r="H33">
-        <v>0.33735765017074371</v>
+        <v>0.33726307199242289</v>
       </c>
       <c r="I33">
-        <v>0.33060054404764438</v>
+        <v>0.28806802688041161</v>
       </c>
       <c r="J33">
-        <v>11.340217368638269</v>
+        <v>8.3089622723814998</v>
       </c>
       <c r="K33">
-        <v>0.21336808826609771</v>
+        <v>17.38529247057847</v>
       </c>
       <c r="L33">
-        <v>0.91248961813400586</v>
+        <v>0.22186485008667969</v>
+      </c>
+      <c r="M33">
+        <v>0.81339667469881249</v>
       </c>
     </row>
   </sheetData>

--- a/prediction_data_corrected.xlsx
+++ b/prediction_data_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/tbt24_cam_ac_uk/Documents/Engineering Tripos/Part IIA/GA3 Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE0B758-4D02-4315-A82F-A5054AAA961E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E913CA2-0E62-48E0-B047-1DE3004A130A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,9 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -564,37 +562,37 @@
         <v>19.7</v>
       </c>
       <c r="C3">
-        <v>24.08423252370503</v>
+        <v>23.042955111009061</v>
       </c>
       <c r="D3">
         <v>53.4</v>
       </c>
       <c r="E3">
-        <v>47.734870153833583</v>
+        <v>49.535146601218138</v>
       </c>
       <c r="F3">
-        <v>0.46253021282624579</v>
+        <v>0.46259545129638208</v>
       </c>
       <c r="G3">
-        <v>0.36107089915385848</v>
+        <v>0.40361523232129981</v>
       </c>
       <c r="H3">
-        <v>0.26905858408189409</v>
+        <v>0.26949179092879227</v>
       </c>
       <c r="I3">
-        <v>0.25726981439366109</v>
+        <v>0.19909208232527531</v>
       </c>
       <c r="J3">
-        <v>8.4541966177960806</v>
+        <v>6.4471913632845919</v>
       </c>
       <c r="K3">
-        <v>13.089610696820831</v>
+        <v>11.662828673411591</v>
       </c>
       <c r="L3">
-        <v>0.1681047432096858</v>
+        <v>0.1146840771151887</v>
       </c>
       <c r="M3">
-        <v>1.270736765909332</v>
+        <v>1.4255456683576979</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -640,37 +638,37 @@
         <v>22.3</v>
       </c>
       <c r="C5">
-        <v>27.90363503569958</v>
+        <v>27.523376745680618</v>
       </c>
       <c r="D5">
         <v>48.5</v>
       </c>
       <c r="E5">
-        <v>43.369783226327939</v>
+        <v>43.934996341402233</v>
       </c>
       <c r="F5">
         <v>0.3283317029368315</v>
       </c>
       <c r="G5">
-        <v>0.36074794169257107</v>
+        <v>0.37790266750974433</v>
       </c>
       <c r="H5">
         <v>0.4202630791594153</v>
       </c>
       <c r="I5">
-        <v>0.25763103311034169</v>
+        <v>0.23012236096391231</v>
       </c>
       <c r="J5">
-        <v>7.6633730324612017</v>
+        <v>7.1433425332341463</v>
       </c>
       <c r="K5">
-        <v>17.82526828188173</v>
+        <v>17.713681306172489</v>
       </c>
       <c r="L5">
-        <v>0.21387919983586171</v>
+        <v>0.19936552464429849</v>
       </c>
       <c r="M5">
-        <v>0.91765115773946437</v>
+        <v>1.0294450180976811</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -684,10 +682,10 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G6">
+        <v>0.49</v>
+      </c>
+      <c r="H6">
         <v>0.35599999999999998</v>
-      </c>
-      <c r="H6">
-        <v>0.49</v>
       </c>
       <c r="I6">
         <v>0.16300000000000001</v>
@@ -702,7 +700,7 @@
         <v>0.2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -713,37 +711,37 @@
         <v>13.8</v>
       </c>
       <c r="C7">
-        <v>18.82446982658109</v>
+        <v>17.506640909900479</v>
       </c>
       <c r="D7">
         <v>53.2</v>
       </c>
       <c r="E7">
-        <v>46.486090979222887</v>
+        <v>48.820045896091422</v>
       </c>
       <c r="F7">
         <v>0.51222689473116245</v>
       </c>
       <c r="G7">
-        <v>0.38747890567509558</v>
+        <v>0.43817160351500212</v>
       </c>
       <c r="H7">
         <v>0.32521730663361642</v>
       </c>
       <c r="I7">
-        <v>0.2960923714378163</v>
+        <v>0.23444204693531581</v>
       </c>
       <c r="J7">
-        <v>10.75293685330157</v>
+        <v>7.9326330971610322</v>
       </c>
       <c r="K7">
-        <v>9.5639939947586647</v>
+        <v>7.4560967837296426</v>
       </c>
       <c r="L7">
-        <v>0.17040378225322611</v>
+        <v>0.1111663478149386</v>
       </c>
       <c r="M7">
-        <v>1.270736765909332</v>
+        <v>1.4255456683576979</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -757,10 +755,10 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="G8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H8">
         <v>0.437</v>
-      </c>
-      <c r="H8">
-        <v>0.29899999999999999</v>
       </c>
       <c r="I8">
         <v>0.39100000000000001</v>
@@ -786,37 +784,37 @@
         <v>19.600000000000001</v>
       </c>
       <c r="C9">
-        <v>27.782789412325009</v>
+        <v>26.425929011597091</v>
       </c>
       <c r="D9">
         <v>57.1</v>
       </c>
       <c r="E9">
-        <v>49.9348091640205</v>
+        <v>49.333757251928581</v>
       </c>
       <c r="F9">
         <v>0.35294101028434532</v>
       </c>
       <c r="G9">
-        <v>0.40718289315084999</v>
+        <v>0.31337671040843651</v>
       </c>
       <c r="H9">
         <v>0.46387118360921059</v>
       </c>
       <c r="I9">
-        <v>0.26848056510459928</v>
+        <v>0.37724134442200019</v>
       </c>
       <c r="J9">
-        <v>12.040864561719429</v>
+        <v>10.04426273182056</v>
       </c>
       <c r="K9">
-        <v>14.18324395917328</v>
+        <v>11.625284212848101</v>
       </c>
       <c r="L9">
-        <v>0.21820771766200009</v>
+        <v>0.20709980661523791</v>
       </c>
       <c r="M9">
-        <v>1.0160763343867421</v>
+        <v>1.1398609500129451</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -830,10 +828,10 @@
         <v>0.375</v>
       </c>
       <c r="G10">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="H10">
         <v>0.45800000000000002</v>
-      </c>
-      <c r="H10">
-        <v>0.46200000000000002</v>
       </c>
       <c r="I10">
         <v>0.219</v>
@@ -859,37 +857,37 @@
         <v>19.3</v>
       </c>
       <c r="C11">
-        <v>26.28585138370121</v>
+        <v>24.596412561760971</v>
       </c>
       <c r="D11">
         <v>54.3</v>
       </c>
       <c r="E11">
-        <v>46.939330670752817</v>
+        <v>48.883972060538483</v>
       </c>
       <c r="F11">
-        <v>0.42604222269952741</v>
+        <v>0.42724092592821228</v>
       </c>
       <c r="G11">
-        <v>0.40807234591518138</v>
+        <v>0.42165402179127093</v>
       </c>
       <c r="H11">
-        <v>0.41474340095602202</v>
+        <v>0.42285017970582178</v>
       </c>
       <c r="I11">
-        <v>0.26746569320425978</v>
+        <v>0.25058902057751292</v>
       </c>
       <c r="J11">
-        <v>12.410027541861069</v>
+        <v>9.4352935370430924</v>
       </c>
       <c r="K11">
-        <v>16.593345849745258</v>
+        <v>13.776787529547031</v>
       </c>
       <c r="L11">
-        <v>0.21030483797849089</v>
+        <v>0.15474365541318619</v>
       </c>
       <c r="M11">
-        <v>0.93934309185717657</v>
+        <v>1.0537795959185059</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -903,10 +901,10 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="G12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="H12">
         <v>0.27500000000000002</v>
-      </c>
-      <c r="H12">
-        <v>0.46200000000000002</v>
       </c>
       <c r="I12">
         <v>0.21199999999999999</v>
@@ -932,37 +930,37 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C13">
-        <v>23.511767850505858</v>
+        <v>22.36737400806755</v>
       </c>
       <c r="D13">
         <v>52.5</v>
       </c>
       <c r="E13">
-        <v>46.763395833217103</v>
+        <v>48.579967479637588</v>
       </c>
       <c r="F13">
         <v>0.56464003879635194</v>
       </c>
       <c r="G13">
-        <v>0.40814060212782183</v>
+        <v>0.43104113413227491</v>
       </c>
       <c r="H13">
         <v>0.27743486681242119</v>
       </c>
       <c r="I13">
-        <v>0.26866446674322458</v>
+        <v>0.24162881373006651</v>
       </c>
       <c r="J13">
-        <v>9.6802256526548156</v>
+        <v>6.9860096771714977</v>
       </c>
       <c r="K13">
-        <v>15.30187652682539</v>
+        <v>12.962717188609</v>
       </c>
       <c r="L13">
-        <v>0.17331130413241391</v>
+        <v>0.1184299855094384</v>
       </c>
       <c r="M13">
-        <v>0.94977264991153276</v>
+        <v>1.065479746340009</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -976,10 +974,10 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="G14">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H14">
         <v>0.36199999999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.34899999999999998</v>
       </c>
       <c r="I14">
         <v>0.34799999999999998</v>
@@ -1005,37 +1003,37 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>25.230304969668349</v>
+        <v>24.79581580912528</v>
       </c>
       <c r="D15">
         <v>52.7</v>
       </c>
       <c r="E15">
-        <v>45.163398907509873</v>
+        <v>46.271023053336258</v>
       </c>
       <c r="F15">
         <v>0.48953224406772677</v>
       </c>
       <c r="G15">
-        <v>0.40820201295363229</v>
+        <v>0.4451578867085304</v>
       </c>
       <c r="H15">
         <v>0.34779811083881462</v>
       </c>
       <c r="I15">
-        <v>0.26845812362905669</v>
+        <v>0.22770256556317339</v>
       </c>
       <c r="J15">
-        <v>12.718562607350719</v>
+        <v>11.831595176785861</v>
       </c>
       <c r="K15">
-        <v>17.85750168530447</v>
+        <v>17.528186815057818</v>
       </c>
       <c r="L15">
-        <v>0.22363801461395069</v>
+        <v>0.19077082927785571</v>
       </c>
       <c r="M15">
-        <v>1.010773370777353</v>
+        <v>1.1339119470363821</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
@@ -1049,10 +1047,10 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="G16">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H16">
         <v>0.42199999999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.29899999999999999</v>
       </c>
       <c r="I16">
         <v>0.4</v>
@@ -1078,37 +1076,37 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C17">
-        <v>23.739813617609389</v>
+        <v>23.10141574190661</v>
       </c>
       <c r="D17">
         <v>53.9</v>
       </c>
       <c r="E17">
-        <v>47.968212059150709</v>
+        <v>49.223686133084158</v>
       </c>
       <c r="F17">
         <v>0.55302687711738685</v>
       </c>
       <c r="G17">
-        <v>0.40825462124941309</v>
+        <v>0.44168216508958802</v>
       </c>
       <c r="H17">
         <v>0.28975422229137721</v>
       </c>
       <c r="I17">
-        <v>0.268514281186508</v>
+        <v>0.23101325429749631</v>
       </c>
       <c r="J17">
-        <v>10.00696868002612</v>
+        <v>8.5349175482376527</v>
       </c>
       <c r="K17">
-        <v>14.4605848402101</v>
+        <v>13.40983241005298</v>
       </c>
       <c r="L17">
-        <v>0.17193588234345769</v>
+        <v>0.1355453294758216</v>
       </c>
       <c r="M17">
-        <v>1.0389106482653621</v>
+        <v>1.1654770792639879</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
@@ -1122,10 +1120,10 @@
         <v>0.375</v>
       </c>
       <c r="G18">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="H18">
         <v>0.44900000000000001</v>
-      </c>
-      <c r="H18">
-        <v>0.46200000000000002</v>
       </c>
       <c r="I18">
         <v>0.223</v>
@@ -1151,37 +1149,37 @@
         <v>19.5</v>
       </c>
       <c r="C19">
-        <v>26.624838232418039</v>
+        <v>24.90548060232577</v>
       </c>
       <c r="D19">
         <v>55.2</v>
       </c>
       <c r="E19">
-        <v>47.691417748630997</v>
+        <v>49.672210323154367</v>
       </c>
       <c r="F19">
-        <v>0.4260496096443453</v>
+        <v>0.42724841393004509</v>
       </c>
       <c r="G19">
-        <v>0.40811380878865489</v>
+        <v>0.42176186992564851</v>
       </c>
       <c r="H19">
-        <v>0.4147368189103699</v>
+        <v>0.42284576308353572</v>
       </c>
       <c r="I19">
-        <v>0.2673994692176046</v>
+        <v>0.25043760364357071</v>
       </c>
       <c r="J19">
-        <v>12.656245024033259</v>
+        <v>9.6290727195190229</v>
       </c>
       <c r="K19">
-        <v>16.25752545944087</v>
+        <v>13.364388030755091</v>
       </c>
       <c r="L19">
-        <v>0.2103244328114566</v>
+        <v>0.15484004697046599</v>
       </c>
       <c r="M19">
-        <v>0.93934309185717657</v>
+        <v>1.0537795959185059</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
@@ -1195,10 +1193,10 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="G20">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H20">
         <v>0.26900000000000002</v>
-      </c>
-      <c r="H20">
-        <v>0.47599999999999998</v>
       </c>
       <c r="I20">
         <v>0.19900000000000001</v>
@@ -1224,37 +1222,37 @@
         <v>19.600000000000001</v>
       </c>
       <c r="C21">
-        <v>23.748826546478341</v>
+        <v>22.596846113732031</v>
       </c>
       <c r="D21">
         <v>53</v>
       </c>
       <c r="E21">
-        <v>47.211220787944811</v>
+        <v>49.041031916570837</v>
       </c>
       <c r="F21">
         <v>0.56464908501740074</v>
       </c>
       <c r="G21">
-        <v>0.4081633149197274</v>
+        <v>0.43110009438190439</v>
       </c>
       <c r="H21">
         <v>0.27743123156096178</v>
       </c>
       <c r="I21">
-        <v>0.26863451787199172</v>
+        <v>0.24156746428056081</v>
       </c>
       <c r="J21">
-        <v>9.7669300944965709</v>
+        <v>7.0550036664294407</v>
       </c>
       <c r="K21">
-        <v>15.201363091724341</v>
+        <v>12.82128344410045</v>
       </c>
       <c r="L21">
-        <v>0.17331674287590401</v>
+        <v>0.1185319785457833</v>
       </c>
       <c r="M21">
-        <v>0.94977264991153276</v>
+        <v>1.065479746340009</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -1268,10 +1266,10 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="G22">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="H22">
         <v>0.35899999999999999</v>
-      </c>
-      <c r="H22">
-        <v>0.35399999999999998</v>
       </c>
       <c r="I22">
         <v>0.34799999999999998</v>
@@ -1297,37 +1295,37 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C23">
-        <v>25.63316143313266</v>
+        <v>25.19750730273341</v>
       </c>
       <c r="D23">
         <v>53.2</v>
       </c>
       <c r="E23">
-        <v>45.627676440640393</v>
+        <v>46.74198167120182</v>
       </c>
       <c r="F23">
         <v>0.49163014316199638</v>
       </c>
       <c r="G23">
-        <v>0.40822477624873571</v>
+        <v>0.44520719938702619</v>
       </c>
       <c r="H23">
         <v>0.34581575331385839</v>
       </c>
       <c r="I23">
-        <v>0.26842765589017381</v>
+        <v>0.22765565104069371</v>
       </c>
       <c r="J23">
-        <v>12.77709433955118</v>
+        <v>11.88406533922114</v>
       </c>
       <c r="K23">
-        <v>17.899097458573429</v>
+        <v>17.525798546016709</v>
       </c>
       <c r="L23">
-        <v>0.2240332414011722</v>
+        <v>0.19106563102953189</v>
       </c>
       <c r="M23">
-        <v>1.0143002836703079</v>
+        <v>1.137868529966938</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -1370,37 +1368,37 @@
         <v>19.600000000000001</v>
       </c>
       <c r="C25">
-        <v>27.116215867774191</v>
+        <v>26.494850259282501</v>
       </c>
       <c r="D25">
         <v>53.5</v>
       </c>
       <c r="E25">
-        <v>47.157295633806491</v>
+        <v>47.154945944317213</v>
       </c>
       <c r="F25">
         <v>0.31873370246732879</v>
       </c>
       <c r="G25">
-        <v>0.38102525244075319</v>
+        <v>0.34939645683015957</v>
       </c>
       <c r="H25">
         <v>0.33737778016139791</v>
       </c>
       <c r="I25">
-        <v>0.28789737111636943</v>
+        <v>0.33176192454977249</v>
       </c>
       <c r="J25">
-        <v>9.9880660258375471</v>
+        <v>9.1623525507351342</v>
       </c>
       <c r="K25">
-        <v>14.84017455962314</v>
+        <v>13.589627158010551</v>
       </c>
       <c r="L25">
-        <v>0.22171728223522669</v>
+        <v>0.20338791325317099</v>
       </c>
       <c r="M25">
-        <v>0.81339667469881249</v>
+        <v>0.91248961813400586</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -1443,37 +1441,37 @@
         <v>22.4</v>
       </c>
       <c r="C27">
-        <v>28.4473127760978</v>
+        <v>26.184407300936229</v>
       </c>
       <c r="D27">
         <v>48.4</v>
       </c>
       <c r="E27">
-        <v>43.87621223579572</v>
+        <v>45.834115737259999</v>
       </c>
       <c r="F27">
         <v>0.28360315342565617</v>
       </c>
       <c r="G27">
-        <v>0.381326096016397</v>
+        <v>0.42072384396497731</v>
       </c>
       <c r="H27">
         <v>0.38559573864255031</v>
       </c>
       <c r="I27">
-        <v>0.28736232098154069</v>
+        <v>0.22390724228491959</v>
       </c>
       <c r="J27">
-        <v>7.1432427772222677</v>
+        <v>4.4702401081896213</v>
       </c>
       <c r="K27">
-        <v>17.71914712981059</v>
+        <v>15.99237302235797</v>
       </c>
       <c r="L27">
-        <v>0.23258895292683859</v>
+        <v>0.14555412695908571</v>
       </c>
       <c r="M27">
-        <v>0.83797194732200819</v>
+        <v>0.94005880034117728</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
@@ -1516,37 +1514,37 @@
         <v>20.5</v>
       </c>
       <c r="C29">
-        <v>27.379704914878278</v>
+        <v>26.652184851899339</v>
       </c>
       <c r="D29">
         <v>52.5</v>
       </c>
       <c r="E29">
-        <v>46.272498924921472</v>
+        <v>47.39511362830855</v>
       </c>
       <c r="F29">
-        <v>0.34254300506268209</v>
+        <v>0.34255489076926549</v>
       </c>
       <c r="G29">
-        <v>0.38147413570318939</v>
+        <v>0.41616683105189228</v>
       </c>
       <c r="H29">
-        <v>0.29612732407304482</v>
+        <v>0.29222859910286608</v>
       </c>
       <c r="I29">
-        <v>0.28720555196210279</v>
+        <v>0.22932747773980611</v>
       </c>
       <c r="J29">
-        <v>9.8219949193968237</v>
+        <v>8.7836361906794203</v>
       </c>
       <c r="K29">
-        <v>16.093402204314099</v>
+        <v>15.592941693784219</v>
       </c>
       <c r="L29">
-        <v>0.2149907785899462</v>
+        <v>0.1922557766218542</v>
       </c>
       <c r="M29">
-        <v>0.8553757926846588</v>
+        <v>0.95958288828376548</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
@@ -1589,37 +1587,37 @@
         <v>21.3</v>
       </c>
       <c r="C31">
-        <v>27.751345982542819</v>
+        <v>27.076656424942801</v>
       </c>
       <c r="D31">
         <v>51.3</v>
       </c>
       <c r="E31">
-        <v>45.463478541243063</v>
+        <v>46.509109333880673</v>
       </c>
       <c r="F31">
-        <v>0.34256189036446572</v>
+        <v>0.34257418530207429</v>
       </c>
       <c r="G31">
-        <v>0.3814223232905416</v>
+        <v>0.41608851214927423</v>
       </c>
       <c r="H31">
-        <v>0.29609697456611811</v>
+        <v>0.2921504135514128</v>
       </c>
       <c r="I31">
-        <v>0.28726402733514278</v>
+        <v>0.2295131958998223</v>
       </c>
       <c r="J31">
-        <v>9.208325756024184</v>
+        <v>8.2456038561537337</v>
       </c>
       <c r="K31">
-        <v>16.999132133325581</v>
+        <v>16.66020111273026</v>
       </c>
       <c r="L31">
-        <v>0.21504486608476059</v>
+        <v>0.1925552141647599</v>
       </c>
       <c r="M31">
-        <v>0.8553757926846588</v>
+        <v>0.95958288828376548</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
@@ -1662,37 +1660,37 @@
         <v>21.8</v>
       </c>
       <c r="C33">
-        <v>28.056588772444371</v>
+        <v>27.541031018064061</v>
       </c>
       <c r="D33">
         <v>50</v>
       </c>
       <c r="E33">
-        <v>44.728551443189517</v>
+        <v>44.720056983475921</v>
       </c>
       <c r="F33">
         <v>0.31878282857294349</v>
       </c>
       <c r="G33">
-        <v>0.38087439154760921</v>
+        <v>0.34892717392406841</v>
       </c>
       <c r="H33">
         <v>0.33726307199242289</v>
       </c>
       <c r="I33">
-        <v>0.28806802688041161</v>
+        <v>0.33240811524514441</v>
       </c>
       <c r="J33">
-        <v>8.3089622723814998</v>
+        <v>7.6242840737364981</v>
       </c>
       <c r="K33">
-        <v>17.38529247057847</v>
+        <v>16.039558524597808</v>
       </c>
       <c r="L33">
-        <v>0.22186485008667969</v>
+        <v>0.20358266021503749</v>
       </c>
       <c r="M33">
-        <v>0.81339667469881249</v>
+        <v>0.91248961813400586</v>
       </c>
     </row>
   </sheetData>
